--- a/待装测试/Pandas VS Excel/output2.xlsx
+++ b/待装测试/Pandas VS Excel/output2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\python\待装测试\Pandas VS Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8E9B85-E6C3-4F4E-B51C-77E070F1CCD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E79CD6-CE3B-4A20-A93B-577FE2461CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>商品</t>
   </si>
   <si>
@@ -208,6 +205,10 @@
   </si>
   <si>
     <t>喜好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -290,12 +291,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -602,30 +606,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -633,10 +635,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -645,7 +647,7 @@
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -653,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>123</v>
@@ -665,7 +667,7 @@
         <v>61.5</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -673,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>123</v>
@@ -685,7 +687,7 @@
         <v>61.5</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -693,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>101</v>
@@ -705,7 +707,7 @@
         <v>50.5</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -713,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>113</v>
@@ -725,7 +727,7 @@
         <v>56.5</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -733,7 +735,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>106</v>
@@ -745,7 +747,7 @@
         <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -753,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>101</v>
@@ -765,7 +767,7 @@
         <v>50.5</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -773,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>103</v>
@@ -785,7 +787,7 @@
         <v>51.5</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -793,7 +795,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>114</v>
@@ -805,7 +807,7 @@
         <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -813,7 +815,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>119</v>
@@ -825,7 +827,7 @@
         <v>59.5</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -833,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>105</v>
@@ -845,7 +847,7 @@
         <v>52.5</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -853,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>123</v>
@@ -865,7 +867,7 @@
         <v>61.5</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -873,7 +875,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>125</v>
@@ -885,7 +887,7 @@
         <v>62.5</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -893,7 +895,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>100</v>
@@ -905,7 +907,7 @@
         <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,7 +915,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>116</v>
@@ -925,7 +927,7 @@
         <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -933,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>128</v>
@@ -945,7 +947,7 @@
         <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -953,7 +955,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>121</v>
@@ -965,7 +967,7 @@
         <v>60.5</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -973,7 +975,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>105</v>
@@ -985,7 +987,7 @@
         <v>52.5</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -993,7 +995,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>105</v>
@@ -1005,7 +1007,7 @@
         <v>52.5</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1013,10 +1015,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>0.5</v>
@@ -1025,7 +1027,7 @@
         <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,7 +1035,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>102</v>
@@ -1045,7 +1047,7 @@
         <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1053,7 +1055,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>122</v>
@@ -1065,7 +1067,7 @@
         <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1073,7 +1075,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>103</v>
@@ -1085,7 +1087,7 @@
         <v>51.5</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,7 +1095,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>108</v>
@@ -1105,7 +1107,7 @@
         <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1113,7 +1115,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>114</v>
@@ -1125,7 +1127,7 @@
         <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1133,7 +1135,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>129</v>
@@ -1145,7 +1147,7 @@
         <v>64.5</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1153,7 +1155,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>122</v>
@@ -1165,7 +1167,7 @@
         <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1173,7 +1175,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>117</v>
@@ -1185,7 +1187,7 @@
         <v>58.5</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1193,7 +1195,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>124</v>
@@ -1205,7 +1207,7 @@
         <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,7 +1215,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>124</v>
@@ -1225,7 +1227,7 @@
         <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1233,7 +1235,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>128</v>
@@ -1245,7 +1247,7 @@
         <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1253,10 +1255,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D33">
         <v>0.5</v>
@@ -1265,7 +1267,7 @@
         <v>52.5</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1273,7 +1275,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>101</v>
@@ -1285,7 +1287,7 @@
         <v>50.5</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1293,7 +1295,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>101</v>
@@ -1305,7 +1307,7 @@
         <v>50.5</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1313,7 +1315,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>107</v>
@@ -1325,7 +1327,7 @@
         <v>53.5</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1333,7 +1335,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>111</v>
@@ -1345,7 +1347,7 @@
         <v>55.5</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1353,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>122</v>
@@ -1365,7 +1367,7 @@
         <v>61</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,7 +1375,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>127</v>
@@ -1385,7 +1387,7 @@
         <v>63.5</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1393,7 +1395,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>109</v>
@@ -1405,7 +1407,7 @@
         <v>54.5</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,7 +1415,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>121</v>
@@ -1425,7 +1427,7 @@
         <v>60.5</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1433,7 +1435,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>103</v>
@@ -1445,7 +1447,7 @@
         <v>51.5</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1453,7 +1455,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>108</v>
@@ -1465,7 +1467,7 @@
         <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,7 +1475,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>127</v>
@@ -1485,7 +1487,7 @@
         <v>63.5</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,7 +1495,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>129</v>
@@ -1505,7 +1507,7 @@
         <v>64.5</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,7 +1515,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>118</v>
@@ -1525,7 +1527,7 @@
         <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1533,7 +1535,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>104</v>
@@ -1545,7 +1547,7 @@
         <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,10 +1555,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="D48">
         <v>0.5</v>
@@ -1565,7 +1567,7 @@
         <v>56</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1573,7 +1575,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>118</v>
@@ -1585,7 +1587,7 @@
         <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1593,7 +1595,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>105</v>
@@ -1605,7 +1607,7 @@
         <v>52.5</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1613,7 +1615,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>112</v>
@@ -1625,7 +1627,7 @@
         <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1633,7 +1635,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>107</v>
@@ -1645,7 +1647,7 @@
         <v>53.5</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1653,7 +1655,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>129</v>
@@ -1665,7 +1667,7 @@
         <v>64.5</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,7 +1675,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>126</v>
@@ -1685,7 +1687,7 @@
         <v>63</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1693,7 +1695,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55">
         <v>120</v>
@@ -1705,7 +1707,7 @@
         <v>60</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
